--- a/Readership Reports/Places.xlsx
+++ b/Readership Reports/Places.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewmacpherson/development/GitHub/Readership-Word-Cloud/Readership Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5DEA71D-A8D8-1A47-8C75-3C005640C9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4BAF4D-8E25-3D4B-90C7-FC7A1CE9F2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14260" windowHeight="21600" xr2:uid="{836667C0-DE47-B041-8E18-FB71019D3FBA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14260" windowHeight="15780" xr2:uid="{836667C0-DE47-B041-8E18-FB71019D3FBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
   <si>
     <t>Vancouver</t>
   </si>
@@ -858,6 +858,72 @@
   </si>
   <si>
     <t>Bhubaneshwar</t>
+  </si>
+  <si>
+    <t>Livonia, MI</t>
+  </si>
+  <si>
+    <t>Cheektowaga, NY</t>
+  </si>
+  <si>
+    <t>Rochester, NY</t>
+  </si>
+  <si>
+    <t>Springfield, MA</t>
+  </si>
+  <si>
+    <t>Ford/GM</t>
+  </si>
+  <si>
+    <t>Brookhaven National Laboratory</t>
+  </si>
+  <si>
+    <t>Lindenhurst, NY</t>
+  </si>
+  <si>
+    <t>Lebanon, PA</t>
+  </si>
+  <si>
+    <t>McKinney, TX</t>
+  </si>
+  <si>
+    <t>Royston, England</t>
+  </si>
+  <si>
+    <t>Brest, France</t>
+  </si>
+  <si>
+    <t>CESI</t>
+  </si>
+  <si>
+    <t>Dusseldorf</t>
+  </si>
+  <si>
+    <t>Hildesheim, Germany</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Tunis, Tunisia</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Caxias do Sul</t>
+  </si>
+  <si>
+    <t>Brasilandia, Brazil</t>
+  </si>
+  <si>
+    <t>Ellite Internet Ltda</t>
+  </si>
+  <si>
+    <t>Rio de Janiero</t>
+  </si>
+  <si>
+    <t>Inhoaiba, Brazil</t>
   </si>
 </sst>
 </file>
@@ -1236,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAC4019-EF2D-7E46-9CD0-5ADF4300B4E4}">
-  <dimension ref="A1:B269"/>
+  <dimension ref="A1:B287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A270" sqref="A270"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A288" sqref="A288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2542,69 +2608,171 @@
         <v>260</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>273</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B270" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B274" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B278" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B286" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/Readership Reports/Places.xlsx
+++ b/Readership Reports/Places.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewmacpherson/development/GitHub/Readership-Word-Cloud/Readership Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF4BAF4D-8E25-3D4B-90C7-FC7A1CE9F2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5432881-51D2-424C-9DA0-2B0C70FFFBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14260" windowHeight="15780" xr2:uid="{836667C0-DE47-B041-8E18-FB71019D3FBA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
   <si>
     <t>Vancouver</t>
   </si>
@@ -924,6 +924,48 @@
   </si>
   <si>
     <t>Inhoaiba, Brazil</t>
+  </si>
+  <si>
+    <t>Calgary, Alberta</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Palo Alto, CA</t>
+  </si>
+  <si>
+    <t>Guskovo, Russia</t>
+  </si>
+  <si>
+    <t>Kyiv, Ukraine</t>
+  </si>
+  <si>
+    <t>Valence-sur-Baise, France</t>
+  </si>
+  <si>
+    <t>Meshchaninov Nikolay Nikolaevych</t>
+  </si>
+  <si>
+    <t>Sharjah, United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Ahmedabad, India</t>
+  </si>
+  <si>
+    <t>Mahajanga, Madagacar</t>
+  </si>
+  <si>
+    <t>Porangatu, Brazil</t>
+  </si>
+  <si>
+    <t>Expand Tecnologia e Informatica Ltda</t>
+  </si>
+  <si>
+    <t>Lagoa dos Gatos, Brazil</t>
+  </si>
+  <si>
+    <t>MW Telecom Solucoes em Telecomunicacoes do Agreste</t>
   </si>
 </sst>
 </file>
@@ -1302,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAC4019-EF2D-7E46-9CD0-5ADF4300B4E4}">
-  <dimension ref="A1:B287"/>
+  <dimension ref="A1:B298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A273" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A288" sqref="A288"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B298" sqref="B298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2775,6 +2817,70 @@
         <v>295</v>
       </c>
     </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B291" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B297" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B298" t="s">
+        <v>309</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Readership Reports/Places.xlsx
+++ b/Readership Reports/Places.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewmacpherson/development/GitHub/Readership-Word-Cloud/Readership Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5432881-51D2-424C-9DA0-2B0C70FFFBF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6483E8BE-1534-8940-9520-B948B3704817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14260" windowHeight="15780" xr2:uid="{836667C0-DE47-B041-8E18-FB71019D3FBA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
   <si>
     <t>Vancouver</t>
   </si>
@@ -966,6 +966,42 @@
   </si>
   <si>
     <t>MW Telecom Solucoes em Telecomunicacoes do Agreste</t>
+  </si>
+  <si>
+    <t>Omaha, NE</t>
+  </si>
+  <si>
+    <t>University of Nebraska Medical Center</t>
+  </si>
+  <si>
+    <t>Madison, WI</t>
+  </si>
+  <si>
+    <t>University of Wisconsin Madison</t>
+  </si>
+  <si>
+    <t>Sao Leopoldo, Brazil</t>
+  </si>
+  <si>
+    <t>Pontocom Net</t>
+  </si>
+  <si>
+    <t>Patrocinio, Brazil</t>
+  </si>
+  <si>
+    <t>Campo Santo, Brazil</t>
+  </si>
+  <si>
+    <t>Dubai</t>
+  </si>
+  <si>
+    <t>Chesterfield, England</t>
+  </si>
+  <si>
+    <t>Ranbirpura, India</t>
+  </si>
+  <si>
+    <t>Chengdu, China</t>
   </si>
 </sst>
 </file>
@@ -1344,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAC4019-EF2D-7E46-9CD0-5ADF4300B4E4}">
-  <dimension ref="A1:B298"/>
+  <dimension ref="A1:B307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B298" sqref="B298"/>
+    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A308" sqref="A308"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2881,6 +2917,60 @@
         <v>309</v>
       </c>
     </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B299" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B300" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B301" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Readership Reports/Places.xlsx
+++ b/Readership Reports/Places.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewmacpherson/development/GitHub/Readership-Word-Cloud/Readership Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6483E8BE-1534-8940-9520-B948B3704817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE4896B-50CA-2545-846F-967BF61848D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14260" windowHeight="15780" xr2:uid="{836667C0-DE47-B041-8E18-FB71019D3FBA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14260" windowHeight="15560" xr2:uid="{836667C0-DE47-B041-8E18-FB71019D3FBA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="335">
   <si>
     <t>Vancouver</t>
   </si>
@@ -1002,6 +1002,45 @@
   </si>
   <si>
     <t>Chengdu, China</t>
+  </si>
+  <si>
+    <t>Santa Monica</t>
+  </si>
+  <si>
+    <t>Clifton, NJ</t>
+  </si>
+  <si>
+    <t>Homun, Mexico</t>
+  </si>
+  <si>
+    <t>Sape, Brazil</t>
+  </si>
+  <si>
+    <t>Teonet Telecomunicacoes Ltda</t>
+  </si>
+  <si>
+    <t>Teofilo Otoni, Brazil</t>
+  </si>
+  <si>
+    <t>Via Ondas Telecomunicacoes Ltda</t>
+  </si>
+  <si>
+    <t>Barao de Cocais, Brazil</t>
+  </si>
+  <si>
+    <t>Alfenas, Brazil</t>
+  </si>
+  <si>
+    <t>Campinas, Brazil</t>
+  </si>
+  <si>
+    <t>Absolute Goods</t>
+  </si>
+  <si>
+    <t>Weinan, China</t>
+  </si>
+  <si>
+    <t>Cangzhou, China</t>
   </si>
 </sst>
 </file>
@@ -1380,10 +1419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAC4019-EF2D-7E46-9CD0-5ADF4300B4E4}">
-  <dimension ref="A1:B307"/>
+  <dimension ref="A1:B318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A286" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A308" sqref="A308"/>
+    <sheetView tabSelected="1" topLeftCell="A308" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B318" sqref="B318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2526,82 +2565,85 @@
         <v>228</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
         <v>244</v>
       </c>
@@ -2956,19 +2998,80 @@
         <v>318</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>321</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B312" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B313" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/Readership Reports/Places.xlsx
+++ b/Readership Reports/Places.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewmacpherson/development/GitHub/Readership-Word-Cloud/Readership Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE4896B-50CA-2545-846F-967BF61848D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60056108-2C93-0144-9CC6-CDEC3DE1DA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14260" windowHeight="15560" xr2:uid="{836667C0-DE47-B041-8E18-FB71019D3FBA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="340">
   <si>
     <t>Vancouver</t>
   </si>
@@ -1041,6 +1041,21 @@
   </si>
   <si>
     <t>Cangzhou, China</t>
+  </si>
+  <si>
+    <t>Joinville, Brazil</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Santo Andre, Brazil</t>
+  </si>
+  <si>
+    <t>Sbcnet Ltda</t>
+  </si>
+  <si>
+    <t>Hangzhou, China</t>
   </si>
 </sst>
 </file>
@@ -1419,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAC4019-EF2D-7E46-9CD0-5ADF4300B4E4}">
-  <dimension ref="A1:B318"/>
+  <dimension ref="A1:B322"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A308" zoomScale="125" workbookViewId="0">
-      <selection activeCell="B318" sqref="B318"/>
+    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A324" sqref="A324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3074,6 +3089,29 @@
         <v>334</v>
       </c>
     </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B321" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Readership Reports/Places.xlsx
+++ b/Readership Reports/Places.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewmacpherson/development/GitHub/Readership-Word-Cloud/Readership Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60056108-2C93-0144-9CC6-CDEC3DE1DA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392B0D7C-FA75-7549-95B1-DB3B4E6FEF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14260" windowHeight="15560" xr2:uid="{836667C0-DE47-B041-8E18-FB71019D3FBA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="373">
   <si>
     <t>Vancouver</t>
   </si>
@@ -272,9 +272,6 @@
     <t>Juiz de Fora, Brazil</t>
   </si>
   <si>
-    <t>Sao Paulo</t>
-  </si>
-  <si>
     <t>Pompeia, Brazil</t>
   </si>
   <si>
@@ -1056,6 +1053,108 @@
   </si>
   <si>
     <t>Hangzhou, China</t>
+  </si>
+  <si>
+    <t>Octopus Web Solution Inc</t>
+  </si>
+  <si>
+    <t>Twin Falls, ID</t>
+  </si>
+  <si>
+    <t>Tekfinity</t>
+  </si>
+  <si>
+    <t>Orem, UT</t>
+  </si>
+  <si>
+    <t>Greenwood Village, CO</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>ABB Information Systems Ltd.</t>
+  </si>
+  <si>
+    <t>St. Louis</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>Hackensack, NJ</t>
+  </si>
+  <si>
+    <t>WhiteLabel IT Solutions Corp</t>
+  </si>
+  <si>
+    <t>Danbury, CT</t>
+  </si>
+  <si>
+    <t>Prince Edward Island</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Viedma, Argentina</t>
+  </si>
+  <si>
+    <t>Pak Telecomunicacoes e Tecnologia da Informacao Ei</t>
+  </si>
+  <si>
+    <t>Patos de Minas, Brazil</t>
+  </si>
+  <si>
+    <t>São José dos Campos, Brazil</t>
+  </si>
+  <si>
+    <t>Green Telecom LTDA</t>
+  </si>
+  <si>
+    <t>University of Pretoria</t>
+  </si>
+  <si>
+    <t>Laudium, South Africa</t>
+  </si>
+  <si>
+    <t>Luanda</t>
+  </si>
+  <si>
+    <t>Bedele, Ethiopia</t>
+  </si>
+  <si>
+    <t>Tit Mellil, Morocco</t>
+  </si>
+  <si>
+    <t>Casablanca</t>
+  </si>
+  <si>
+    <t>Nanterre, France</t>
+  </si>
+  <si>
+    <t>Technical University of Gdansk Academic Computer Center Task</t>
+  </si>
+  <si>
+    <t>Vilnius</t>
+  </si>
+  <si>
+    <t>Secemin, Poland</t>
+  </si>
+  <si>
+    <t>Irakleio, Greece</t>
+  </si>
+  <si>
+    <t>Muscat</t>
+  </si>
+  <si>
+    <t>Coimbatore, India</t>
+  </si>
+  <si>
+    <t>Bac Giang, Vietnam</t>
+  </si>
+  <si>
+    <t>Baoding, China</t>
   </si>
 </sst>
 </file>
@@ -1434,10 +1533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAC4019-EF2D-7E46-9CD0-5ADF4300B4E4}">
-  <dimension ref="A1:B322"/>
+  <dimension ref="A1:B347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A324" sqref="A324"/>
+    <sheetView tabSelected="1" topLeftCell="A326" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C345" sqref="C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1489,6 +1588,9 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -1932,12 +2034,12 @@
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.2">
@@ -1957,7 +2059,7 @@
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.2">
@@ -1996,7 +2098,7 @@
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2047,12 +2149,12 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.2">
@@ -2062,7 +2164,7 @@
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.2">
@@ -2232,17 +2334,17 @@
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.2">
@@ -2340,82 +2442,85 @@
         <v>180</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>196</v>
       </c>
@@ -2639,14 +2744,14 @@
       <c r="A236" s="1" t="s">
         <v>240</v>
       </c>
+      <c r="B236" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B237" t="s">
-        <v>332</v>
-      </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
@@ -2807,14 +2912,14 @@
       <c r="A269" s="1" t="s">
         <v>273</v>
       </c>
+      <c r="B269" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B270" t="s">
-        <v>278</v>
-      </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
@@ -2828,16 +2933,16 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
+      </c>
+      <c r="B273" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B274" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
@@ -2853,12 +2958,12 @@
       <c r="A277" s="1" t="s">
         <v>283</v>
       </c>
+      <c r="B277" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B278" t="s">
         <v>285</v>
       </c>
     </row>
@@ -2894,6 +2999,9 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B285" t="s">
         <v>292</v>
       </c>
     </row>
@@ -2901,9 +3009,6 @@
       <c r="A286" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B286" t="s">
-        <v>293</v>
-      </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
@@ -2924,14 +3029,14 @@
       <c r="A290" s="1" t="s">
         <v>298</v>
       </c>
+      <c r="B290" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B291" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
@@ -2940,7 +3045,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -2957,44 +3062,44 @@
       <c r="A296" s="1" t="s">
         <v>305</v>
       </c>
+      <c r="B296" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B297" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B298" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B299" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B300" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B301" t="s">
         <v>315</v>
       </c>
     </row>
@@ -3045,24 +3150,24 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B311" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B312" t="s">
         <v>327</v>
-      </c>
-      <c r="B312" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B313" t="s">
-        <v>328</v>
-      </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
@@ -3071,12 +3176,12 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>331</v>
+        <v>178</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>179</v>
+        <v>332</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -3093,23 +3198,166 @@
       <c r="A319" s="1" t="s">
         <v>335</v>
       </c>
+      <c r="B319" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>336</v>
       </c>
+      <c r="B320" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B321" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
+      </c>
+      <c r="B322" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B325" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B328" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B334" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B335" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A337" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A338" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A339" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A340" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A341" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>

--- a/Readership Reports/Places.xlsx
+++ b/Readership Reports/Places.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewmacpherson/development/GitHub/Readership-Word-Cloud/Readership Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392B0D7C-FA75-7549-95B1-DB3B4E6FEF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69D2D10-45C5-EF44-AED4-C85EC8AEBA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14260" windowHeight="15560" xr2:uid="{836667C0-DE47-B041-8E18-FB71019D3FBA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="389">
   <si>
     <t>Vancouver</t>
   </si>
@@ -1155,6 +1155,54 @@
   </si>
   <si>
     <t>Baoding, China</t>
+  </si>
+  <si>
+    <t>Anchorage, Alaska</t>
+  </si>
+  <si>
+    <t>Sacramento</t>
+  </si>
+  <si>
+    <t>Morelia, Mexico</t>
+  </si>
+  <si>
+    <t>Charlotte, North Carolina</t>
+  </si>
+  <si>
+    <t>Virginia Beach</t>
+  </si>
+  <si>
+    <t>Santa Cruz de Tenerife</t>
+  </si>
+  <si>
+    <t>Volvets, Ukraine</t>
+  </si>
+  <si>
+    <t>Karlskoga, Sweden</t>
+  </si>
+  <si>
+    <t>Saint Petersburg, Russia</t>
+  </si>
+  <si>
+    <t>Qazvin, Iran</t>
+  </si>
+  <si>
+    <t>Azadpur, India</t>
+  </si>
+  <si>
+    <t>Mandla, India</t>
+  </si>
+  <si>
+    <t>Jeddah</t>
+  </si>
+  <si>
+    <t>Paso de Carrasco, Uruguay</t>
+  </si>
+  <si>
+    <t>Montevideo</t>
+  </si>
+  <si>
+    <t>Piaçu, Brazil</t>
   </si>
 </sst>
 </file>
@@ -1533,10 +1581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAC4019-EF2D-7E46-9CD0-5ADF4300B4E4}">
-  <dimension ref="A1:B347"/>
+  <dimension ref="A1:B365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A326" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C345" sqref="C345"/>
+    <sheetView tabSelected="1" topLeftCell="A344" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A366" sqref="A366"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3360,6 +3408,96 @@
         <v>372</v>
       </c>
     </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A349" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A358" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A359" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A360" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A361" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A362" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A363" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A365" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Readership Reports/Places.xlsx
+++ b/Readership Reports/Places.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewmacpherson/development/GitHub/Readership-Word-Cloud/Readership Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E69D2D10-45C5-EF44-AED4-C85EC8AEBA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90935E96-8C7B-2849-A1EE-2DF402D257CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14260" windowHeight="15560" xr2:uid="{836667C0-DE47-B041-8E18-FB71019D3FBA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="394">
   <si>
     <t>Vancouver</t>
   </si>
@@ -1203,6 +1203,21 @@
   </si>
   <si>
     <t>Piaçu, Brazil</t>
+  </si>
+  <si>
+    <t>Hammond, Louisiana</t>
+  </si>
+  <si>
+    <t>Boumerdes, Algeria</t>
+  </si>
+  <si>
+    <t>PT Telemedia Komunikasi Pratama</t>
+  </si>
+  <si>
+    <t>Kien Giang, Vietnam</t>
+  </si>
+  <si>
+    <t>Scheuer Facundo Agustin</t>
   </si>
 </sst>
 </file>
@@ -1581,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFAC4019-EF2D-7E46-9CD0-5ADF4300B4E4}">
-  <dimension ref="A1:B365"/>
+  <dimension ref="A1:B368"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A344" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A366" sqref="A366"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1930,82 +1945,85 @@
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2653,82 +2671,85 @@
         <v>212</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B214" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>228</v>
       </c>
@@ -3496,6 +3517,21 @@
     <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>388</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A366" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A367" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A368" s="1" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>
